--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_storagemod.xlsx
@@ -14,198 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.8775736953578</t>
-  </si>
-  <si>
-    <t>95.7627860143745</t>
-  </si>
-  <si>
-    <t>97.6479983333912</t>
-  </si>
-  <si>
-    <t>99.5332106524079</t>
-  </si>
-  <si>
-    <t>101.4184229714246</t>
-  </si>
-  <si>
-    <t>103.2179438213951</t>
-  </si>
-  <si>
-    <t>104.4053827496069</t>
-  </si>
-  <si>
-    <t>106.04576229992014</t>
-  </si>
-  <si>
-    <t>107.75959168084441</t>
-  </si>
-  <si>
-    <t>109.47342106176868</t>
-  </si>
-  <si>
-    <t>111.35863338078539</t>
-  </si>
-  <si>
-    <t>113.24384569980208</t>
-  </si>
-  <si>
-    <t>115.1290580188188</t>
-  </si>
-  <si>
-    <t>117.01427033783548</t>
-  </si>
-  <si>
-    <t>118.93375924447068</t>
-  </si>
-  <si>
-    <t>120.78469497586889</t>
-  </si>
-  <si>
-    <t>122.68704558869484</t>
-  </si>
-  <si>
-    <t>124.55511961390229</t>
-  </si>
-  <si>
-    <t>126.440331932919</t>
-  </si>
-  <si>
-    <t>128.3255442519357</t>
-  </si>
-  <si>
-    <t>130.21075657095238</t>
-  </si>
-  <si>
-    <t>132.0959688899691</t>
-  </si>
-  <si>
-    <t>133.9811812089858</t>
-  </si>
-  <si>
-    <t>135.8663935280025</t>
-  </si>
-  <si>
-    <t>137.7516058470192</t>
-  </si>
-  <si>
-    <t>139.63681816603588</t>
-  </si>
-  <si>
-    <t>141.5220304850526</t>
-  </si>
-  <si>
-    <t>143.4072428040693</t>
-  </si>
-  <si>
-    <t>145.292455123086</t>
-  </si>
-  <si>
-    <t>147.1776674421027</t>
-  </si>
-  <si>
-    <t>148.97718829207318</t>
-  </si>
-  <si>
-    <t>13169092.807640973</t>
-  </si>
-  <si>
-    <t>13122625.768048666</t>
-  </si>
-  <si>
-    <t>12997234.951576455</t>
-  </si>
-  <si>
-    <t>11869015.041137714</t>
-  </si>
-  <si>
-    <t>9615898.109777238</t>
-  </si>
-  <si>
-    <t>7191170.637171624</t>
-  </si>
-  <si>
-    <t>5537949.259219746</t>
-  </si>
-  <si>
-    <t>4150501.9091427648</t>
-  </si>
-  <si>
-    <t>3014032.305601206</t>
-  </si>
-  <si>
-    <t>2244155.6648357087</t>
-  </si>
-  <si>
-    <t>1744437.0508398027</t>
-  </si>
-  <si>
-    <t>1390441.8616581226</t>
-  </si>
-  <si>
-    <t>1210823.2108145303</t>
-  </si>
-  <si>
-    <t>1064556.2872040854</t>
-  </si>
-  <si>
-    <t>946894.5888921233</t>
-  </si>
-  <si>
-    <t>868003.5309485695</t>
-  </si>
-  <si>
-    <t>779716.0844834258</t>
-  </si>
-  <si>
-    <t>689891.9089291391</t>
-  </si>
-  <si>
-    <t>621395.2970855382</t>
-  </si>
-  <si>
-    <t>582223.9464273285</t>
-  </si>
-  <si>
-    <t>547391.2809174195</t>
-  </si>
-  <si>
-    <t>509155.5264155443</t>
-  </si>
-  <si>
-    <t>477386.0297677123</t>
-  </si>
-  <si>
-    <t>436012.0624331371</t>
-  </si>
-  <si>
-    <t>403250.4931335137</t>
-  </si>
-  <si>
-    <t>383648.21425752697</t>
-  </si>
-  <si>
-    <t>354740.3061694566</t>
-  </si>
-  <si>
-    <t>335424.3076631993</t>
-  </si>
-  <si>
-    <t>311639.0571895553</t>
-  </si>
-  <si>
-    <t>290400.1571668741</t>
-  </si>
-  <si>
-    <t>269116.7994511847</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -578,251 +392,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="A2">
+        <v>93.8775736953578</v>
+      </c>
+      <c r="B2">
+        <v>13169092.80764097</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="A3">
+        <v>95.7627860143745</v>
+      </c>
+      <c r="B3">
+        <v>13122625.76804867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
+      <c r="A4">
+        <v>97.6479983333912</v>
+      </c>
+      <c r="B4">
+        <v>12997234.95157645</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+      <c r="A5">
+        <v>99.5332106524079</v>
+      </c>
+      <c r="B5">
+        <v>11869015.04113771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
+      <c r="A6">
+        <v>101.4184229714246</v>
+      </c>
+      <c r="B6">
+        <v>9615898.109777238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="A7">
+        <v>103.2179438213951</v>
+      </c>
+      <c r="B7">
+        <v>7191170.637171624</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="A8">
+        <v>104.4053827496069</v>
+      </c>
+      <c r="B8">
+        <v>5537949.259219746</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="A9">
+        <v>106.0457622999201</v>
+      </c>
+      <c r="B9">
+        <v>4150501.909142765</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
+      <c r="A10">
+        <v>107.7595916808444</v>
+      </c>
+      <c r="B10">
+        <v>3014032.305601206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
+      <c r="A11">
+        <v>109.4734210617687</v>
+      </c>
+      <c r="B11">
+        <v>2244155.664835709</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="A12">
+        <v>111.3586333807854</v>
+      </c>
+      <c r="B12">
+        <v>1744437.050839803</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
+      <c r="A13">
+        <v>113.2438456998021</v>
+      </c>
+      <c r="B13">
+        <v>1390441.861658123</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
+      <c r="A14">
+        <v>115.1290580188188</v>
+      </c>
+      <c r="B14">
+        <v>1210823.21081453</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
+      <c r="A15">
+        <v>117.0142703378355</v>
+      </c>
+      <c r="B15">
+        <v>1064556.287204085</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
+      <c r="A16">
+        <v>118.9337592444707</v>
+      </c>
+      <c r="B16">
+        <v>946894.5888921233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="A17">
+        <v>120.7846949758689</v>
+      </c>
+      <c r="B17">
+        <v>868003.5309485695</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
+      <c r="A18">
+        <v>122.6870455886948</v>
+      </c>
+      <c r="B18">
+        <v>779716.0844834258</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
+      <c r="A19">
+        <v>124.5551196139023</v>
+      </c>
+      <c r="B19">
+        <v>689891.9089291391</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
+      <c r="A20">
+        <v>126.440331932919</v>
+      </c>
+      <c r="B20">
+        <v>621395.2970855382</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
+      <c r="A21">
+        <v>128.3255442519357</v>
+      </c>
+      <c r="B21">
+        <v>582223.9464273285</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
+      <c r="A22">
+        <v>130.2107565709524</v>
+      </c>
+      <c r="B22">
+        <v>547391.2809174195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="A23">
+        <v>132.0959688899691</v>
+      </c>
+      <c r="B23">
+        <v>509155.5264155443</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
+      <c r="A24">
+        <v>133.9811812089858</v>
+      </c>
+      <c r="B24">
+        <v>477386.0297677123</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
+      <c r="A25">
+        <v>135.8663935280025</v>
+      </c>
+      <c r="B25">
+        <v>436012.0624331371</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
+      <c r="A26">
+        <v>137.7516058470192</v>
+      </c>
+      <c r="B26">
+        <v>403250.4931335137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
+      <c r="A27">
+        <v>139.6368181660359</v>
+      </c>
+      <c r="B27">
+        <v>383648.214257527</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
+      <c r="A28">
+        <v>141.5220304850526</v>
+      </c>
+      <c r="B28">
+        <v>354740.3061694566</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="A29">
+        <v>143.4072428040693</v>
+      </c>
+      <c r="B29">
+        <v>335424.3076631993</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
+      <c r="A30">
+        <v>145.292455123086</v>
+      </c>
+      <c r="B30">
+        <v>311639.0571895553</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
+      <c r="A31">
+        <v>147.1776674421027</v>
+      </c>
+      <c r="B31">
+        <v>290400.1571668741</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="A32">
+        <v>148.9771882920732</v>
+      </c>
+      <c r="B32">
+        <v>269116.7994511847</v>
       </c>
     </row>
   </sheetData>
